--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H2">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N2">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O2">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P2">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q2">
-        <v>1154.674288754853</v>
+        <v>5.535212741283666</v>
       </c>
       <c r="R2">
-        <v>10392.06859879367</v>
+        <v>49.81691467155299</v>
       </c>
       <c r="S2">
-        <v>0.115073084750051</v>
+        <v>0.006096204831859239</v>
       </c>
       <c r="T2">
-        <v>0.115073084750051</v>
+        <v>0.00609620483185924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H3">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P3">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q3">
-        <v>55.21993247318022</v>
+        <v>6.292718086493221</v>
       </c>
       <c r="R3">
-        <v>496.9793922586221</v>
+        <v>56.63446277843899</v>
       </c>
       <c r="S3">
-        <v>0.005503134547345447</v>
+        <v>0.006930483108317093</v>
       </c>
       <c r="T3">
-        <v>0.005503134547345447</v>
+        <v>0.006930483108317094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H4">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N4">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q4">
-        <v>206.7260252699334</v>
+        <v>5.57088618224811</v>
       </c>
       <c r="R4">
-        <v>1860.5342274294</v>
+        <v>50.13797564023299</v>
       </c>
       <c r="S4">
-        <v>0.02060200149739261</v>
+        <v>0.006135493764975485</v>
       </c>
       <c r="T4">
-        <v>0.02060200149739262</v>
+        <v>0.006135493764975486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N5">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O5">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P5">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q5">
-        <v>6301.085458035774</v>
+        <v>265.0621931185353</v>
       </c>
       <c r="R5">
-        <v>56709.76912232197</v>
+        <v>2385.559738066818</v>
       </c>
       <c r="S5">
-        <v>0.6279566003948724</v>
+        <v>0.2919261639901642</v>
       </c>
       <c r="T5">
-        <v>0.6279566003948726</v>
+        <v>0.2919261639901642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N6">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O6">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P6">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q6">
         <v>301.3365040592371</v>
@@ -818,10 +818,10 @@
         <v>2712.028536533134</v>
       </c>
       <c r="S6">
-        <v>0.03003073802508011</v>
+        <v>0.3318768650679673</v>
       </c>
       <c r="T6">
-        <v>0.03003073802508011</v>
+        <v>0.3318768650679673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N7">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q7">
-        <v>1128.108908556867</v>
+        <v>266.7704708198775</v>
       </c>
       <c r="R7">
-        <v>10152.9801770118</v>
+        <v>2400.934237378897</v>
       </c>
       <c r="S7">
-        <v>0.1124256193334298</v>
+        <v>0.2938075751054783</v>
       </c>
       <c r="T7">
-        <v>0.1124256193334298</v>
+        <v>0.2938075751054784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H8">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N8">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O8">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P8">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q8">
-        <v>723.0817363673191</v>
+        <v>18.26389534553933</v>
       </c>
       <c r="R8">
-        <v>6507.735627305873</v>
+        <v>164.375058109854</v>
       </c>
       <c r="S8">
-        <v>0.07206122691095634</v>
+        <v>0.0201149354610402</v>
       </c>
       <c r="T8">
-        <v>0.07206122691095634</v>
+        <v>0.02011493546104021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H9">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N9">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O9">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P9">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q9">
-        <v>34.57990278613578</v>
+        <v>20.76334730795578</v>
       </c>
       <c r="R9">
-        <v>311.219125075222</v>
+        <v>186.870125771602</v>
       </c>
       <c r="S9">
-        <v>0.003446180557331479</v>
+        <v>0.02286770610283301</v>
       </c>
       <c r="T9">
-        <v>0.00344618055733148</v>
+        <v>0.02286770610283301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H10">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N10">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q10">
-        <v>129.4562585832667</v>
+        <v>18.38160283445488</v>
       </c>
       <c r="R10">
-        <v>1165.1063272494</v>
+        <v>165.434425510094</v>
       </c>
       <c r="S10">
-        <v>0.0129014139835407</v>
+        <v>0.02024457256736515</v>
       </c>
       <c r="T10">
-        <v>0.0129014139835407</v>
+        <v>0.02024457256736516</v>
       </c>
     </row>
   </sheetData>
